--- a/excel/output1.xlsx
+++ b/excel/output1.xlsx
@@ -23,13 +23,13 @@
     <t>Babylon Solid Wood Bookshelf In Walnut Finish</t>
   </si>
   <si>
-    <t>₹4,619</t>
+    <t>₹4,465</t>
   </si>
   <si>
     <t>Armstrong Engineered Wood Bookshelf In Laminate Finish</t>
   </si>
   <si>
-    <t>₹8,679</t>
+    <t>₹8,259</t>
   </si>
 </sst>
 </file>
